--- a/data_processed/20250718/BTCUSDQMOMENT_20250718.xlsx
+++ b/data_processed/20250718/BTCUSDQMOMENT_20250718.xlsx
@@ -1208,10 +1208,18 @@
       <c r="H20" t="n">
         <v>4.880809278211021</v>
       </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="I20" t="n">
+        <v>-0.2142540206958893</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.1228639571988135</v>
+      </c>
+      <c r="K20" t="n">
+        <v>-0.3323086314944577</v>
+      </c>
+      <c r="L20" t="n">
+        <v>2.233479598900402</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data_processed/20250718/BTCUSDQMOMENT_20250718.xlsx
+++ b/data_processed/20250718/BTCUSDQMOMENT_20250718.xlsx
@@ -566,10 +566,18 @@
       <c r="H3" t="n">
         <v>6.471862919815515</v>
       </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+      <c r="I3" t="n">
+        <v>-0.3481849190473605</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.2123102164198775</v>
+      </c>
+      <c r="K3" t="n">
+        <v>-0.6323858570326343</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2.935572397170822</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">

--- a/data_processed/20250718/BTCUSDQMOMENT_20250718.xlsx
+++ b/data_processed/20250718/BTCUSDQMOMENT_20250718.xlsx
@@ -594,19 +594,19 @@
         <v>0.1917808219178082</v>
       </c>
       <c r="D4" t="n">
-        <v>119114.3997239806</v>
+        <v>119110.6959536328</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.02519134653862712</v>
+        <v>-0.02540452173790457</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2006178460210331</v>
+        <v>0.2019830164175798</v>
       </c>
       <c r="G4" t="n">
-        <v>-1.465159217025648</v>
+        <v>-1.545695123913811</v>
       </c>
       <c r="H4" t="n">
-        <v>17.30349161400585</v>
+        <v>18.44252563185625</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -764,19 +764,19 @@
         <v>0.9397260273972603</v>
       </c>
       <c r="D9" t="n">
-        <v>125164.8361222499</v>
+        <v>124921.4050677596</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.07625256489689193</v>
+        <v>-0.08349034835913985</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3244078649103542</v>
+        <v>0.3501939789064979</v>
       </c>
       <c r="G9" t="n">
-        <v>-1.437593768828861</v>
+        <v>-1.716480120115715</v>
       </c>
       <c r="H9" t="n">
-        <v>8.954585898897207</v>
+        <v>10.59627937947441</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -798,19 +798,19 @@
         <v>1.189041095890411</v>
       </c>
       <c r="D10" t="n">
-        <v>125803.7789283471</v>
+        <v>125804.6627585162</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.1224798632469529</v>
+        <v>-0.1238914850691796</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4391139144752562</v>
+        <v>0.4496105518733471</v>
       </c>
       <c r="G10" t="n">
-        <v>-1.826432854618453</v>
+        <v>-1.947917665978205</v>
       </c>
       <c r="H10" t="n">
-        <v>8.848342566711878</v>
+        <v>9.841464898599122</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -832,19 +832,19 @@
         <v>1.435616438356164</v>
       </c>
       <c r="D11" t="n">
-        <v>127896.5484941342</v>
+        <v>127900.3809220471</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.1365535680506225</v>
+        <v>-0.1361039053318512</v>
       </c>
       <c r="F11" t="n">
-        <v>0.447819722875318</v>
+        <v>0.4451099947975722</v>
       </c>
       <c r="G11" t="n">
-        <v>-1.682836608115791</v>
+        <v>-1.65527693074002</v>
       </c>
       <c r="H11" t="n">
-        <v>7.949575866994652</v>
+        <v>7.743714170899811</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -1034,19 +1034,19 @@
         <v>0.01643835616438356</v>
       </c>
       <c r="D16" t="n">
-        <v>117471.2368863651</v>
+        <v>117583.6572386419</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.07235409461773196</v>
+        <v>-0.05578875267763517</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3756533931722985</v>
+        <v>0.1484356984337717</v>
       </c>
       <c r="G16" t="n">
-        <v>-12.99553267860921</v>
+        <v>-0.7013653358047669</v>
       </c>
       <c r="H16" t="n">
-        <v>296.6545009636196</v>
+        <v>9.826820736088662</v>
       </c>
       <c r="I16" t="n">
         <v>0.02231827164685904</v>
@@ -1118,19 +1118,19 @@
         <v>0.05753424657534247</v>
       </c>
       <c r="D18" t="n">
-        <v>118429.7630344301</v>
+        <v>118459.1535628688</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.01396310335193768</v>
+        <v>-0.01244252634384652</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1616012284002337</v>
+        <v>0.1565769665494396</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.3989841325909078</v>
+        <v>-0.18295335789966</v>
       </c>
       <c r="H18" t="n">
-        <v>7.255294688481864</v>
+        <v>5.932574827135706</v>
       </c>
       <c r="I18" t="n">
         <v>-0.2382286455045588</v>

--- a/data_processed/20250718/BTCUSDQMOMENT_20250718.xlsx
+++ b/data_processed/20250718/BTCUSDQMOMENT_20250718.xlsx
@@ -608,10 +608,18 @@
       <c r="H4" t="n">
         <v>18.44252563185625</v>
       </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="I4" t="n">
+        <v>-0.560448708900612</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.2709512763370845</v>
+      </c>
+      <c r="K4" t="n">
+        <v>-0.295937103102058</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2.312932164623692</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">

--- a/data_processed/20250718/BTCUSDQMOMENT_20250718.xlsx
+++ b/data_processed/20250718/BTCUSDQMOMENT_20250718.xlsx
@@ -650,10 +650,18 @@
       <c r="H5" t="n">
         <v>10.73435915106776</v>
       </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="I5" t="n">
+        <v>-0.6141830484198026</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.451704197853215</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.1321754508754534</v>
+      </c>
+      <c r="L5" t="n">
+        <v>2.526671512074564</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
